--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value282.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value282.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.054990379450527</v>
+        <v>1.249265789985657</v>
       </c>
       <c r="B1">
-        <v>2.19635313820564</v>
+        <v>1.404392957687378</v>
       </c>
       <c r="C1">
-        <v>2.414816160487803</v>
+        <v>1.711446046829224</v>
       </c>
       <c r="D1">
-        <v>2.35513473908852</v>
+        <v>3.251639604568481</v>
       </c>
       <c r="E1">
-        <v>0.9134663289714701</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
